--- a/Vroom Virtusa/df_cc_dup.xlsx
+++ b/Vroom Virtusa/df_cc_dup.xlsx
@@ -1011,7 +1011,7 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3259,7 +3259,7 @@
         <v>57</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -4050,7 +4050,7 @@
         <v>72</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>74</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -4541,7 +4541,7 @@
         <v>82</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153">
         <v>1</v>

--- a/Vroom Virtusa/df_cc_dup.xlsx
+++ b/Vroom Virtusa/df_cc_dup.xlsx
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>2797.550352838847</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>2337.572390401728</v>
@@ -4076,7 +4076,7 @@
         <v>73</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
         <v>6247.68353863376</v>

--- a/Vroom Virtusa/df_cc_dup.xlsx
+++ b/Vroom Virtusa/df_cc_dup.xlsx
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>2797.550352838847</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>2337.572390401728</v>
@@ -4076,7 +4076,7 @@
         <v>73</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
         <v>6247.68353863376</v>
